--- a/.format input excel/Flexi CI Input Data.xlsx
+++ b/.format input excel/Flexi CI Input Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\iLoveLife-EasytoUse\.format input excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\E2U_VP\.format input excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88697B6-4443-4E83-8A85-AA505834004D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F6EFEB-868D-4822-963A-F58113173EFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="1450">
   <si>
     <t>gender</t>
   </si>
@@ -4368,6 +4368,9 @@
   </si>
   <si>
     <t>CY12</t>
+  </si>
+  <si>
+    <t>xlpremi</t>
   </si>
 </sst>
 </file>
@@ -5291,10 +5294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5321,12 +5324,14 @@
     <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="30" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="29" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.28515625" customWidth="1"/>
+    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -5415,16 +5420,19 @@
         <v>20</v>
       </c>
       <c r="AD1" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="AE1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -5476,43 +5484,47 @@
       <c r="Q2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="W2" t="str">
+      <c r="W2" s="10" t="str">
         <f>data!A2</f>
         <v>D14</v>
       </c>
-      <c r="X2" t="str">
+      <c r="X2" s="10" t="str">
         <f>data!B2</f>
         <v>D15</v>
       </c>
-      <c r="Y2" t="str">
+      <c r="Y2" s="10" t="str">
         <f>data!C2</f>
         <v>D16</v>
       </c>
-      <c r="Z2" t="str">
+      <c r="Z2" s="10" t="str">
         <f>data!D2</f>
         <v>D17</v>
       </c>
-      <c r="AA2" t="str">
+      <c r="AA2" s="10" t="str">
         <f>data!E2</f>
         <v>D18</v>
       </c>
-      <c r="AB2" t="str">
+      <c r="AB2" s="10" t="str">
         <f>data!F2</f>
         <v>D19</v>
       </c>
-      <c r="AC2" t="str">
+      <c r="AC2" s="10" t="str">
         <f>data!G2</f>
         <v>D20</v>
       </c>
-      <c r="AD2" t="str">
+      <c r="AD2" s="10" t="str">
         <f>data!H2</f>
         <v>D21</v>
       </c>
-      <c r="AE2" t="str">
+      <c r="AE2" s="10" t="str">
         <f>data!I2</f>
         <v>D22</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="AF2" s="10" t="str">
+        <f>data!J2</f>
+        <v>D23</v>
+      </c>
+      <c r="AG2" s="10" t="str">
         <f>data!N2</f>
         <v>D12</v>
       </c>

--- a/.format input excel/Flexi CI Input Data.xlsx
+++ b/.format input excel/Flexi CI Input Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\E2U_VP\.format input excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F6EFEB-868D-4822-963A-F58113173EFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D6AE3A-194C-461B-A017-E19E3114EC65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="1450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1448">
   <si>
     <t>gender</t>
   </si>
@@ -183,12 +183,6 @@
   </si>
   <si>
     <t>Pakai Data Existing</t>
-  </si>
-  <si>
-    <t>xlvar9</t>
-  </si>
-  <si>
-    <t>xlvar10</t>
   </si>
   <si>
     <t>xlvar11</t>
@@ -5296,8 +5290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5398,38 +5392,49 @@
       <c r="V1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="X1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>1449</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>22</v>
+      <c r="W1" s="9" t="str">
+        <f>data!A1</f>
+        <v>xlvar1</v>
+      </c>
+      <c r="X1" s="9" t="str">
+        <f>data!B1</f>
+        <v>xlvar2</v>
+      </c>
+      <c r="Y1" s="9" t="str">
+        <f>data!C1</f>
+        <v>xlvar3</v>
+      </c>
+      <c r="Z1" s="9" t="str">
+        <f>data!D1</f>
+        <v>xlvar4</v>
+      </c>
+      <c r="AA1" s="9" t="str">
+        <f>data!E1</f>
+        <v>xlvar5</v>
+      </c>
+      <c r="AB1" s="9" t="str">
+        <f>data!F1</f>
+        <v>xlvar6</v>
+      </c>
+      <c r="AC1" s="9" t="str">
+        <f>data!G1</f>
+        <v>xlvar7</v>
+      </c>
+      <c r="AD1" s="9" t="str">
+        <f>data!H1</f>
+        <v>xlpremi</v>
+      </c>
+      <c r="AE1" s="9" t="str">
+        <f>data!I1</f>
+        <v>xlvar8</v>
+      </c>
+      <c r="AF1" s="9" t="str">
+        <f>data!J1</f>
+        <v>xlpay</v>
+      </c>
+      <c r="AG1" s="9" t="str">
+        <f>data!N1</f>
+        <v>xlstat</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -5484,47 +5489,47 @@
       <c r="Q2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="W2" s="10" t="str">
+      <c r="W2" s="9" t="str">
         <f>data!A2</f>
         <v>D14</v>
       </c>
-      <c r="X2" s="10" t="str">
+      <c r="X2" s="9" t="str">
         <f>data!B2</f>
         <v>D15</v>
       </c>
-      <c r="Y2" s="10" t="str">
+      <c r="Y2" s="9" t="str">
         <f>data!C2</f>
         <v>D16</v>
       </c>
-      <c r="Z2" s="10" t="str">
+      <c r="Z2" s="9" t="str">
         <f>data!D2</f>
         <v>D17</v>
       </c>
-      <c r="AA2" s="10" t="str">
+      <c r="AA2" s="9" t="str">
         <f>data!E2</f>
         <v>D18</v>
       </c>
-      <c r="AB2" s="10" t="str">
+      <c r="AB2" s="9" t="str">
         <f>data!F2</f>
         <v>D19</v>
       </c>
-      <c r="AC2" s="10" t="str">
+      <c r="AC2" s="9" t="str">
         <f>data!G2</f>
         <v>D20</v>
       </c>
-      <c r="AD2" s="10" t="str">
+      <c r="AD2" s="9" t="str">
         <f>data!H2</f>
         <v>D21</v>
       </c>
-      <c r="AE2" s="10" t="str">
+      <c r="AE2" s="9" t="str">
         <f>data!I2</f>
         <v>D22</v>
       </c>
-      <c r="AF2" s="10" t="str">
+      <c r="AF2" s="9" t="str">
         <f>data!J2</f>
         <v>D23</v>
       </c>
-      <c r="AG2" s="10" t="str">
+      <c r="AG2" s="9" t="str">
         <f>data!N2</f>
         <v>D12</v>
       </c>
@@ -5554,7 +5559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDBE47A-C823-4A0B-BA93-F0985294EA4E}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5584,22 +5591,22 @@
         <v>20</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>1447</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="N1" s="11" t="s">
         <v>22</v>
@@ -5634,16 +5641,16 @@
         <v>47</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>48</v>
@@ -5651,4358 +5658,4358 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="I5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="F6" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>116</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="F7" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="I7" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>130</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="K8" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="E9" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="K9" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="M11" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="N11" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="I12" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="K12" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="M12" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="N12" s="11" t="s">
         <v>200</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="N13" s="11" t="s">
         <v>214</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="L14" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="M14" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="N14" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="M15" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="N15" s="11" t="s">
         <v>242</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="D16" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="N16" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="K17" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="L17" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="N17" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="E18" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="M18" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="N18" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="N19" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="I20" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="K20" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="N20" s="11" t="s">
         <v>312</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="K21" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="L21" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="M21" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="N21" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="F22" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="I22" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="J22" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="K22" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="L22" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="M22" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="N22" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="I23" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="J23" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="K23" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="L23" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="M23" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="N23" s="11" t="s">
         <v>354</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="I24" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="J24" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="K24" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="N24" s="11" t="s">
         <v>368</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="D25" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="I25" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="J25" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="K25" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="N25" s="11" t="s">
         <v>382</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="D26" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="G26" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="I26" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="J26" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="L26" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="M26" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="N26" s="11" t="s">
         <v>396</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="D27" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="G27" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="I27" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="J27" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="K27" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="L27" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="M27" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="N27" s="11" t="s">
         <v>410</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="G28" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="I28" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="J28" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="K28" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="L28" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="M28" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="N28" s="11" t="s">
         <v>424</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="I29" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="J29" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="K29" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="L29" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="M29" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="N29" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="D30" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="F30" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="I30" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="J30" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="K30" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="L30" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="M30" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="N30" s="11" t="s">
         <v>452</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="D31" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="F31" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="I31" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="J31" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="K31" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="L31" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="M31" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="N31" s="11" t="s">
         <v>466</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="F32" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="G32" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="I32" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="J32" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="K32" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="L32" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="M32" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="N32" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="D33" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="E33" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="F33" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="G33" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="I33" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="J33" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="K33" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="J33" s="11" t="s">
+      <c r="L33" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="K33" s="11" t="s">
+      <c r="M33" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="N33" s="11" t="s">
         <v>494</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="D34" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="F34" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="G34" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="H34" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="I34" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="J34" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="K34" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="L34" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="K34" s="11" t="s">
+      <c r="M34" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="L34" s="11" t="s">
+      <c r="N34" s="11" t="s">
         <v>508</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>509</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="H35" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="I35" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="J35" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="K35" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="L35" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="M35" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="N35" s="11" t="s">
         <v>522</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="D36" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="F36" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="G36" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="H36" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="I36" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="J36" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="K36" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="L36" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="M36" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="N36" s="11" t="s">
         <v>536</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="D37" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="F37" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="G37" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="I37" s="11" t="s">
         <v>545</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="J37" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="K37" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="L37" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="M37" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="N37" s="11" t="s">
         <v>550</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>551</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="F38" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="G38" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="H38" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="I38" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="J38" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="K38" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="L38" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="M38" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="N38" s="11" t="s">
         <v>564</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="D39" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="E39" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="F39" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="G39" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="I39" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="J39" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="K39" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="L39" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="M39" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="N39" s="11" t="s">
         <v>578</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="D40" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="F40" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="H40" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="I40" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="J40" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="K40" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="L40" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="M40" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="N40" s="11" t="s">
         <v>592</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="D41" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="E41" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="F41" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="G41" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="H41" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="I41" s="11" t="s">
         <v>601</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="J41" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="K41" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="L41" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="M41" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="L41" s="11" t="s">
+      <c r="N41" s="11" t="s">
         <v>606</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="N41" s="11" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="E42" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="F42" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="G42" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="H42" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="I42" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="J42" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="K42" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="L42" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="K42" s="11" t="s">
+      <c r="M42" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="L42" s="11" t="s">
+      <c r="N42" s="11" t="s">
         <v>620</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>621</v>
-      </c>
-      <c r="N42" s="11" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="D43" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="E43" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="F43" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="G43" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="H43" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="I43" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="J43" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="K43" s="11" t="s">
         <v>631</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="L43" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="K43" s="11" t="s">
+      <c r="M43" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="L43" s="11" t="s">
+      <c r="N43" s="11" t="s">
         <v>634</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>636</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>637</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="D44" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="E44" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="F44" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="G44" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="H44" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="I44" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="J44" s="11" t="s">
         <v>644</v>
       </c>
-      <c r="I44" s="11" t="s">
+      <c r="K44" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="L44" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="M44" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="N44" s="11" t="s">
         <v>648</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="D45" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="E45" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="F45" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="G45" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="I45" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="H45" s="11" t="s">
+      <c r="J45" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="I45" s="11" t="s">
+      <c r="K45" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="L45" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="M45" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="N45" s="11" t="s">
         <v>662</v>
-      </c>
-      <c r="M45" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="E46" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="F46" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="G46" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="H46" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="I46" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="J46" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="I46" s="11" t="s">
+      <c r="K46" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="L46" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="K46" s="11" t="s">
+      <c r="M46" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="L46" s="11" t="s">
+      <c r="N46" s="11" t="s">
         <v>676</v>
-      </c>
-      <c r="M46" s="11" t="s">
-        <v>677</v>
-      </c>
-      <c r="N46" s="11" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="D47" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="E47" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="F47" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="G47" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="I47" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="J47" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="K47" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="J47" s="11" t="s">
+      <c r="L47" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="M47" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="N47" s="11" t="s">
         <v>690</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="D48" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="E48" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="G48" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>698</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="I48" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="H48" s="11" t="s">
+      <c r="J48" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="I48" s="11" t="s">
+      <c r="K48" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="L48" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="M48" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="L48" s="11" t="s">
+      <c r="N48" s="11" t="s">
         <v>704</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="N48" s="11" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="D49" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="E49" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="F49" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="G49" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="H49" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="I49" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="J49" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="K49" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="L49" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="M49" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="N49" s="11" t="s">
         <v>718</v>
-      </c>
-      <c r="M49" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="N49" s="11" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="D50" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="E50" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="F50" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="G50" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="I50" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="J50" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="K50" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="L50" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="M50" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="N50" s="11" t="s">
         <v>732</v>
-      </c>
-      <c r="M50" s="11" t="s">
-        <v>733</v>
-      </c>
-      <c r="N50" s="11" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>734</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="D51" s="11" t="s">
         <v>736</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="E51" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="F51" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="G51" s="11" t="s">
         <v>739</v>
       </c>
-      <c r="F51" s="11" t="s">
+      <c r="H51" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="I51" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="J51" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="I51" s="11" t="s">
+      <c r="K51" s="11" t="s">
         <v>743</v>
       </c>
-      <c r="J51" s="11" t="s">
+      <c r="L51" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="M51" s="11" t="s">
         <v>745</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="N51" s="11" t="s">
         <v>746</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>747</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>749</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="D52" s="11" t="s">
         <v>750</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="E52" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="F52" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="G52" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="H52" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="I52" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="J52" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="I52" s="11" t="s">
+      <c r="K52" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="J52" s="11" t="s">
+      <c r="L52" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="M52" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="N52" s="11" t="s">
         <v>760</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="N52" s="11" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>762</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="D53" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="E53" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="F53" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="G53" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="H53" s="11" t="s">
         <v>768</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="I53" s="11" t="s">
         <v>769</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="J53" s="11" t="s">
         <v>770</v>
       </c>
-      <c r="I53" s="11" t="s">
+      <c r="K53" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="J53" s="11" t="s">
+      <c r="L53" s="11" t="s">
         <v>772</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="M53" s="11" t="s">
         <v>773</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="N53" s="11" t="s">
         <v>774</v>
-      </c>
-      <c r="M53" s="11" t="s">
-        <v>775</v>
-      </c>
-      <c r="N53" s="11" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>777</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="D54" s="11" t="s">
         <v>778</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="E54" s="11" t="s">
         <v>779</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="F54" s="11" t="s">
         <v>780</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="G54" s="11" t="s">
         <v>781</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="H54" s="11" t="s">
         <v>782</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="I54" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="J54" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="K54" s="11" t="s">
         <v>785</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="L54" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="M54" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="L54" s="11" t="s">
+      <c r="N54" s="11" t="s">
         <v>788</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>789</v>
-      </c>
-      <c r="N54" s="11" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="D55" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="E55" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="F55" s="11" t="s">
         <v>794</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="G55" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="F55" s="11" t="s">
+      <c r="H55" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="I55" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="H55" s="11" t="s">
+      <c r="J55" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="I55" s="11" t="s">
+      <c r="K55" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="J55" s="11" t="s">
+      <c r="L55" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="M55" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="N55" s="11" t="s">
         <v>802</v>
-      </c>
-      <c r="M55" s="11" t="s">
-        <v>803</v>
-      </c>
-      <c r="N55" s="11" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="D56" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="E56" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="F56" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="G56" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="I56" s="11" t="s">
         <v>811</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="J56" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="I56" s="11" t="s">
+      <c r="K56" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="J56" s="11" t="s">
+      <c r="L56" s="11" t="s">
         <v>814</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="M56" s="11" t="s">
         <v>815</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="N56" s="11" t="s">
         <v>816</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>817</v>
-      </c>
-      <c r="N56" s="11" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
+        <v>817</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>818</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="D57" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="E57" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="F57" s="11" t="s">
         <v>822</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="G57" s="11" t="s">
         <v>823</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="H57" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="I57" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="J57" s="11" t="s">
         <v>826</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="K57" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="J57" s="11" t="s">
+      <c r="L57" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="M57" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="N57" s="11" t="s">
         <v>830</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="N57" s="11" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
+        <v>831</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>833</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="D58" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="E58" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="F58" s="11" t="s">
         <v>836</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="G58" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="H58" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="I58" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="J58" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="I58" s="11" t="s">
+      <c r="K58" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="J58" s="11" t="s">
+      <c r="L58" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="M58" s="11" t="s">
         <v>843</v>
       </c>
-      <c r="L58" s="11" t="s">
+      <c r="N58" s="11" t="s">
         <v>844</v>
-      </c>
-      <c r="M58" s="11" t="s">
-        <v>845</v>
-      </c>
-      <c r="N58" s="11" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="D59" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="E59" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="F59" s="11" t="s">
         <v>850</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="G59" s="11" t="s">
         <v>851</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="H59" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="I59" s="11" t="s">
         <v>853</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="J59" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="I59" s="11" t="s">
+      <c r="K59" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="J59" s="11" t="s">
+      <c r="L59" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="M59" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="N59" s="11" t="s">
         <v>858</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>859</v>
-      </c>
-      <c r="N59" s="11" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
+        <v>859</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>861</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="D60" s="11" t="s">
         <v>862</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="E60" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="F60" s="11" t="s">
         <v>864</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="G60" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="H60" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="I60" s="11" t="s">
         <v>867</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="J60" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="I60" s="11" t="s">
+      <c r="K60" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="J60" s="11" t="s">
+      <c r="L60" s="11" t="s">
         <v>870</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="M60" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="L60" s="11" t="s">
+      <c r="N60" s="11" t="s">
         <v>872</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>873</v>
-      </c>
-      <c r="N60" s="11" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="D61" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="E61" s="11" t="s">
         <v>877</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="F61" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="G61" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="H61" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="I61" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="J61" s="11" t="s">
         <v>882</v>
       </c>
-      <c r="I61" s="11" t="s">
+      <c r="K61" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="J61" s="11" t="s">
+      <c r="L61" s="11" t="s">
         <v>884</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="M61" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="L61" s="11" t="s">
+      <c r="N61" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="M61" s="11" t="s">
-        <v>887</v>
-      </c>
-      <c r="N61" s="11" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="D62" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="E62" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="F62" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="G62" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="F62" s="11" t="s">
+      <c r="H62" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="I62" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="J62" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="K62" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="J62" s="11" t="s">
+      <c r="L62" s="11" t="s">
         <v>898</v>
       </c>
-      <c r="K62" s="11" t="s">
+      <c r="M62" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="L62" s="11" t="s">
+      <c r="N62" s="11" t="s">
         <v>900</v>
-      </c>
-      <c r="M62" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="N62" s="11" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>903</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="D63" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="E63" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="F63" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="G63" s="11" t="s">
         <v>907</v>
       </c>
-      <c r="F63" s="11" t="s">
+      <c r="H63" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="I63" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="J63" s="11" t="s">
         <v>910</v>
       </c>
-      <c r="I63" s="11" t="s">
+      <c r="K63" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="J63" s="11" t="s">
+      <c r="L63" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="K63" s="11" t="s">
+      <c r="M63" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="L63" s="11" t="s">
+      <c r="N63" s="11" t="s">
         <v>914</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>915</v>
-      </c>
-      <c r="N63" s="11" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>916</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="D64" s="11" t="s">
         <v>918</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="E64" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="F64" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="G64" s="11" t="s">
         <v>921</v>
       </c>
-      <c r="F64" s="11" t="s">
+      <c r="H64" s="11" t="s">
         <v>922</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="I64" s="11" t="s">
         <v>923</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="J64" s="11" t="s">
         <v>924</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="K64" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="J64" s="11" t="s">
+      <c r="L64" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="K64" s="11" t="s">
+      <c r="M64" s="11" t="s">
         <v>927</v>
       </c>
-      <c r="L64" s="11" t="s">
+      <c r="N64" s="11" t="s">
         <v>928</v>
-      </c>
-      <c r="M64" s="11" t="s">
-        <v>929</v>
-      </c>
-      <c r="N64" s="11" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="D65" s="11" t="s">
         <v>932</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="E65" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="F65" s="11" t="s">
         <v>934</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="G65" s="11" t="s">
         <v>935</v>
       </c>
-      <c r="F65" s="11" t="s">
+      <c r="H65" s="11" t="s">
         <v>936</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="I65" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="J65" s="11" t="s">
         <v>938</v>
       </c>
-      <c r="I65" s="11" t="s">
+      <c r="K65" s="11" t="s">
         <v>939</v>
       </c>
-      <c r="J65" s="11" t="s">
+      <c r="L65" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="M65" s="11" t="s">
         <v>941</v>
       </c>
-      <c r="L65" s="11" t="s">
+      <c r="N65" s="11" t="s">
         <v>942</v>
-      </c>
-      <c r="M65" s="11" t="s">
-        <v>943</v>
-      </c>
-      <c r="N65" s="11" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>945</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="D66" s="11" t="s">
         <v>946</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="E66" s="11" t="s">
         <v>947</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="F66" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="G66" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="H66" s="11" t="s">
         <v>950</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="I66" s="11" t="s">
         <v>951</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="J66" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="I66" s="11" t="s">
+      <c r="K66" s="11" t="s">
         <v>953</v>
       </c>
-      <c r="J66" s="11" t="s">
+      <c r="L66" s="11" t="s">
         <v>954</v>
       </c>
-      <c r="K66" s="11" t="s">
+      <c r="M66" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="L66" s="11" t="s">
+      <c r="N66" s="11" t="s">
         <v>956</v>
-      </c>
-      <c r="M66" s="11" t="s">
-        <v>957</v>
-      </c>
-      <c r="N66" s="11" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>959</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="D67" s="11" t="s">
         <v>960</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="E67" s="11" t="s">
         <v>961</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="F67" s="11" t="s">
         <v>962</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="G67" s="11" t="s">
         <v>963</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="H67" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="I67" s="11" t="s">
         <v>965</v>
       </c>
-      <c r="H67" s="11" t="s">
+      <c r="J67" s="11" t="s">
         <v>966</v>
       </c>
-      <c r="I67" s="11" t="s">
+      <c r="K67" s="11" t="s">
         <v>967</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="L67" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="K67" s="11" t="s">
+      <c r="M67" s="11" t="s">
         <v>969</v>
       </c>
-      <c r="L67" s="11" t="s">
+      <c r="N67" s="11" t="s">
         <v>970</v>
-      </c>
-      <c r="M67" s="11" t="s">
-        <v>971</v>
-      </c>
-      <c r="N67" s="11" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>972</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>973</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="D68" s="11" t="s">
         <v>974</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="E68" s="11" t="s">
         <v>975</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="F68" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="G68" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="F68" s="11" t="s">
+      <c r="H68" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="I68" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="J68" s="11" t="s">
         <v>980</v>
       </c>
-      <c r="I68" s="11" t="s">
+      <c r="K68" s="11" t="s">
         <v>981</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="L68" s="11" t="s">
         <v>982</v>
       </c>
-      <c r="K68" s="11" t="s">
+      <c r="M68" s="11" t="s">
         <v>983</v>
       </c>
-      <c r="L68" s="11" t="s">
+      <c r="N68" s="11" t="s">
         <v>984</v>
-      </c>
-      <c r="M68" s="11" t="s">
-        <v>985</v>
-      </c>
-      <c r="N68" s="11" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
+        <v>985</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>986</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>987</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="D69" s="11" t="s">
         <v>988</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="E69" s="11" t="s">
         <v>989</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="F69" s="11" t="s">
         <v>990</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="G69" s="11" t="s">
         <v>991</v>
       </c>
-      <c r="F69" s="11" t="s">
+      <c r="H69" s="11" t="s">
         <v>992</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="I69" s="11" t="s">
         <v>993</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="J69" s="11" t="s">
         <v>994</v>
       </c>
-      <c r="I69" s="11" t="s">
+      <c r="K69" s="11" t="s">
         <v>995</v>
       </c>
-      <c r="J69" s="11" t="s">
+      <c r="L69" s="11" t="s">
         <v>996</v>
       </c>
-      <c r="K69" s="11" t="s">
+      <c r="M69" s="11" t="s">
         <v>997</v>
       </c>
-      <c r="L69" s="11" t="s">
+      <c r="N69" s="11" t="s">
         <v>998</v>
-      </c>
-      <c r="M69" s="11" t="s">
-        <v>999</v>
-      </c>
-      <c r="N69" s="11" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>1001</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="D70" s="11" t="s">
         <v>1002</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="E70" s="11" t="s">
         <v>1003</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="F70" s="11" t="s">
         <v>1004</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="G70" s="11" t="s">
         <v>1005</v>
       </c>
-      <c r="F70" s="11" t="s">
+      <c r="H70" s="11" t="s">
         <v>1006</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="I70" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="H70" s="11" t="s">
+      <c r="J70" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="K70" s="11" t="s">
         <v>1009</v>
       </c>
-      <c r="J70" s="11" t="s">
+      <c r="L70" s="11" t="s">
         <v>1010</v>
       </c>
-      <c r="K70" s="11" t="s">
+      <c r="M70" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="L70" s="11" t="s">
+      <c r="N70" s="11" t="s">
         <v>1012</v>
-      </c>
-      <c r="M70" s="11" t="s">
-        <v>1013</v>
-      </c>
-      <c r="N70" s="11" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="D71" s="11" t="s">
         <v>1016</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="E71" s="11" t="s">
         <v>1017</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="F71" s="11" t="s">
         <v>1018</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="G71" s="11" t="s">
         <v>1019</v>
       </c>
-      <c r="F71" s="11" t="s">
+      <c r="H71" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="G71" s="11" t="s">
+      <c r="I71" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="H71" s="11" t="s">
+      <c r="J71" s="11" t="s">
         <v>1022</v>
       </c>
-      <c r="I71" s="11" t="s">
+      <c r="K71" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="J71" s="11" t="s">
+      <c r="L71" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="K71" s="11" t="s">
+      <c r="M71" s="11" t="s">
         <v>1025</v>
       </c>
-      <c r="L71" s="11" t="s">
+      <c r="N71" s="11" t="s">
         <v>1026</v>
-      </c>
-      <c r="M71" s="11" t="s">
-        <v>1027</v>
-      </c>
-      <c r="N71" s="11" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>1029</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="D72" s="11" t="s">
         <v>1030</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="E72" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="F72" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="G72" s="11" t="s">
         <v>1033</v>
       </c>
-      <c r="F72" s="11" t="s">
+      <c r="H72" s="11" t="s">
         <v>1034</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="I72" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="J72" s="11" t="s">
         <v>1036</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="K72" s="11" t="s">
         <v>1037</v>
       </c>
-      <c r="J72" s="11" t="s">
+      <c r="L72" s="11" t="s">
         <v>1038</v>
       </c>
-      <c r="K72" s="11" t="s">
+      <c r="M72" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="L72" s="11" t="s">
+      <c r="N72" s="11" t="s">
         <v>1040</v>
-      </c>
-      <c r="M72" s="11" t="s">
-        <v>1041</v>
-      </c>
-      <c r="N72" s="11" t="s">
-        <v>1042</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>1043</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="D73" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="E73" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="F73" s="11" t="s">
         <v>1046</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="G73" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="H73" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="I73" s="11" t="s">
         <v>1049</v>
       </c>
-      <c r="H73" s="11" t="s">
+      <c r="J73" s="11" t="s">
         <v>1050</v>
       </c>
-      <c r="I73" s="11" t="s">
+      <c r="K73" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="J73" s="11" t="s">
+      <c r="L73" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="K73" s="11" t="s">
+      <c r="M73" s="11" t="s">
         <v>1053</v>
       </c>
-      <c r="L73" s="11" t="s">
+      <c r="N73" s="11" t="s">
         <v>1054</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>1055</v>
-      </c>
-      <c r="N73" s="11" t="s">
-        <v>1056</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="D74" s="11" t="s">
         <v>1058</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="E74" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>1060</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="G74" s="11" t="s">
         <v>1061</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="H74" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="G74" s="11" t="s">
+      <c r="I74" s="11" t="s">
         <v>1063</v>
       </c>
-      <c r="H74" s="11" t="s">
+      <c r="J74" s="11" t="s">
         <v>1064</v>
       </c>
-      <c r="I74" s="11" t="s">
+      <c r="K74" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="J74" s="11" t="s">
+      <c r="L74" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="K74" s="11" t="s">
+      <c r="M74" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="L74" s="11" t="s">
+      <c r="N74" s="11" t="s">
         <v>1068</v>
-      </c>
-      <c r="M74" s="11" t="s">
-        <v>1069</v>
-      </c>
-      <c r="N74" s="11" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>1071</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="D75" s="11" t="s">
         <v>1072</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="E75" s="11" t="s">
         <v>1073</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="F75" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="G75" s="11" t="s">
         <v>1075</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="H75" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="G75" s="11" t="s">
+      <c r="I75" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="J75" s="11" t="s">
         <v>1078</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="K75" s="11" t="s">
         <v>1079</v>
       </c>
-      <c r="J75" s="11" t="s">
+      <c r="L75" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="K75" s="11" t="s">
+      <c r="M75" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="L75" s="11" t="s">
+      <c r="N75" s="11" t="s">
         <v>1082</v>
-      </c>
-      <c r="M75" s="11" t="s">
-        <v>1083</v>
-      </c>
-      <c r="N75" s="11" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>1085</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="D76" s="11" t="s">
         <v>1086</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="E76" s="11" t="s">
         <v>1087</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="F76" s="11" t="s">
         <v>1088</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="G76" s="11" t="s">
         <v>1089</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="H76" s="11" t="s">
         <v>1090</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="I76" s="11" t="s">
         <v>1091</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="J76" s="11" t="s">
         <v>1092</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="K76" s="11" t="s">
         <v>1093</v>
       </c>
-      <c r="J76" s="11" t="s">
+      <c r="L76" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="K76" s="11" t="s">
+      <c r="M76" s="11" t="s">
         <v>1095</v>
       </c>
-      <c r="L76" s="11" t="s">
+      <c r="N76" s="11" t="s">
         <v>1096</v>
-      </c>
-      <c r="M76" s="11" t="s">
-        <v>1097</v>
-      </c>
-      <c r="N76" s="11" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>1099</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="D77" s="11" t="s">
         <v>1100</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="E77" s="11" t="s">
         <v>1101</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="F77" s="11" t="s">
         <v>1102</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="G77" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="F77" s="11" t="s">
+      <c r="H77" s="11" t="s">
         <v>1104</v>
       </c>
-      <c r="G77" s="11" t="s">
+      <c r="I77" s="11" t="s">
         <v>1105</v>
       </c>
-      <c r="H77" s="11" t="s">
+      <c r="J77" s="11" t="s">
         <v>1106</v>
       </c>
-      <c r="I77" s="11" t="s">
+      <c r="K77" s="11" t="s">
         <v>1107</v>
       </c>
-      <c r="J77" s="11" t="s">
+      <c r="L77" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="K77" s="11" t="s">
+      <c r="M77" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="L77" s="11" t="s">
+      <c r="N77" s="11" t="s">
         <v>1110</v>
-      </c>
-      <c r="M77" s="11" t="s">
-        <v>1111</v>
-      </c>
-      <c r="N77" s="11" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>1113</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="D78" s="11" t="s">
         <v>1114</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="E78" s="11" t="s">
         <v>1115</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="F78" s="11" t="s">
         <v>1116</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="G78" s="11" t="s">
         <v>1117</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="H78" s="11" t="s">
         <v>1118</v>
       </c>
-      <c r="G78" s="11" t="s">
+      <c r="I78" s="11" t="s">
         <v>1119</v>
       </c>
-      <c r="H78" s="11" t="s">
+      <c r="J78" s="11" t="s">
         <v>1120</v>
       </c>
-      <c r="I78" s="11" t="s">
+      <c r="K78" s="11" t="s">
         <v>1121</v>
       </c>
-      <c r="J78" s="11" t="s">
+      <c r="L78" s="11" t="s">
         <v>1122</v>
       </c>
-      <c r="K78" s="11" t="s">
+      <c r="M78" s="11" t="s">
         <v>1123</v>
       </c>
-      <c r="L78" s="11" t="s">
+      <c r="N78" s="11" t="s">
         <v>1124</v>
-      </c>
-      <c r="M78" s="11" t="s">
-        <v>1125</v>
-      </c>
-      <c r="N78" s="11" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="D79" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="E79" s="11" t="s">
         <v>1129</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="F79" s="11" t="s">
         <v>1130</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="G79" s="11" t="s">
         <v>1131</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="H79" s="11" t="s">
         <v>1132</v>
       </c>
-      <c r="G79" s="11" t="s">
+      <c r="I79" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="H79" s="11" t="s">
+      <c r="J79" s="11" t="s">
         <v>1134</v>
       </c>
-      <c r="I79" s="11" t="s">
+      <c r="K79" s="11" t="s">
         <v>1135</v>
       </c>
-      <c r="J79" s="11" t="s">
+      <c r="L79" s="11" t="s">
         <v>1136</v>
       </c>
-      <c r="K79" s="11" t="s">
+      <c r="M79" s="11" t="s">
         <v>1137</v>
       </c>
-      <c r="L79" s="11" t="s">
+      <c r="N79" s="11" t="s">
         <v>1138</v>
-      </c>
-      <c r="M79" s="11" t="s">
-        <v>1139</v>
-      </c>
-      <c r="N79" s="11" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="D80" s="11" t="s">
         <v>1142</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="E80" s="11" t="s">
         <v>1143</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="F80" s="11" t="s">
         <v>1144</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="G80" s="11" t="s">
         <v>1145</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="H80" s="11" t="s">
         <v>1146</v>
       </c>
-      <c r="G80" s="11" t="s">
+      <c r="I80" s="11" t="s">
         <v>1147</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="J80" s="11" t="s">
         <v>1148</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="K80" s="11" t="s">
         <v>1149</v>
       </c>
-      <c r="J80" s="11" t="s">
+      <c r="L80" s="11" t="s">
         <v>1150</v>
       </c>
-      <c r="K80" s="11" t="s">
+      <c r="M80" s="11" t="s">
         <v>1151</v>
       </c>
-      <c r="L80" s="11" t="s">
+      <c r="N80" s="11" t="s">
         <v>1152</v>
-      </c>
-      <c r="M80" s="11" t="s">
-        <v>1153</v>
-      </c>
-      <c r="N80" s="11" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="D81" s="11" t="s">
         <v>1156</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="E81" s="11" t="s">
         <v>1157</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="F81" s="11" t="s">
         <v>1158</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="G81" s="11" t="s">
         <v>1159</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="H81" s="11" t="s">
         <v>1160</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="I81" s="11" t="s">
         <v>1161</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="J81" s="11" t="s">
         <v>1162</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="K81" s="11" t="s">
         <v>1163</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="L81" s="11" t="s">
         <v>1164</v>
       </c>
-      <c r="K81" s="11" t="s">
+      <c r="M81" s="11" t="s">
         <v>1165</v>
       </c>
-      <c r="L81" s="11" t="s">
+      <c r="N81" s="11" t="s">
         <v>1166</v>
-      </c>
-      <c r="M81" s="11" t="s">
-        <v>1167</v>
-      </c>
-      <c r="N81" s="11" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>1169</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="D82" s="11" t="s">
         <v>1170</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="E82" s="11" t="s">
         <v>1171</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="F82" s="11" t="s">
         <v>1172</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="G82" s="11" t="s">
         <v>1173</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="H82" s="11" t="s">
         <v>1174</v>
       </c>
-      <c r="G82" s="11" t="s">
+      <c r="I82" s="11" t="s">
         <v>1175</v>
       </c>
-      <c r="H82" s="11" t="s">
+      <c r="J82" s="11" t="s">
         <v>1176</v>
       </c>
-      <c r="I82" s="11" t="s">
+      <c r="K82" s="11" t="s">
         <v>1177</v>
       </c>
-      <c r="J82" s="11" t="s">
+      <c r="L82" s="11" t="s">
         <v>1178</v>
       </c>
-      <c r="K82" s="11" t="s">
+      <c r="M82" s="11" t="s">
         <v>1179</v>
       </c>
-      <c r="L82" s="11" t="s">
+      <c r="N82" s="11" t="s">
         <v>1180</v>
-      </c>
-      <c r="M82" s="11" t="s">
-        <v>1181</v>
-      </c>
-      <c r="N82" s="11" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>1183</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="D83" s="11" t="s">
         <v>1184</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="E83" s="11" t="s">
         <v>1185</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="F83" s="11" t="s">
         <v>1186</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="G83" s="11" t="s">
         <v>1187</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="H83" s="11" t="s">
         <v>1188</v>
       </c>
-      <c r="G83" s="11" t="s">
+      <c r="I83" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="H83" s="11" t="s">
+      <c r="J83" s="11" t="s">
         <v>1190</v>
       </c>
-      <c r="I83" s="11" t="s">
+      <c r="K83" s="11" t="s">
         <v>1191</v>
       </c>
-      <c r="J83" s="11" t="s">
+      <c r="L83" s="11" t="s">
         <v>1192</v>
       </c>
-      <c r="K83" s="11" t="s">
+      <c r="M83" s="11" t="s">
         <v>1193</v>
       </c>
-      <c r="L83" s="11" t="s">
+      <c r="N83" s="11" t="s">
         <v>1194</v>
-      </c>
-      <c r="M83" s="11" t="s">
-        <v>1195</v>
-      </c>
-      <c r="N83" s="11" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>1197</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="D84" s="11" t="s">
         <v>1198</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="E84" s="11" t="s">
         <v>1199</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="F84" s="11" t="s">
         <v>1200</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="G84" s="11" t="s">
         <v>1201</v>
       </c>
-      <c r="F84" s="11" t="s">
+      <c r="H84" s="11" t="s">
         <v>1202</v>
       </c>
-      <c r="G84" s="11" t="s">
+      <c r="I84" s="11" t="s">
         <v>1203</v>
       </c>
-      <c r="H84" s="11" t="s">
+      <c r="J84" s="11" t="s">
         <v>1204</v>
       </c>
-      <c r="I84" s="11" t="s">
+      <c r="K84" s="11" t="s">
         <v>1205</v>
       </c>
-      <c r="J84" s="11" t="s">
+      <c r="L84" s="11" t="s">
         <v>1206</v>
       </c>
-      <c r="K84" s="11" t="s">
+      <c r="M84" s="11" t="s">
         <v>1207</v>
       </c>
-      <c r="L84" s="11" t="s">
+      <c r="N84" s="11" t="s">
         <v>1208</v>
-      </c>
-      <c r="M84" s="11" t="s">
-        <v>1209</v>
-      </c>
-      <c r="N84" s="11" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>1211</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="D85" s="11" t="s">
         <v>1212</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="E85" s="11" t="s">
         <v>1213</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="F85" s="11" t="s">
         <v>1214</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="G85" s="11" t="s">
         <v>1215</v>
       </c>
-      <c r="F85" s="11" t="s">
+      <c r="H85" s="11" t="s">
         <v>1216</v>
       </c>
-      <c r="G85" s="11" t="s">
+      <c r="I85" s="11" t="s">
         <v>1217</v>
       </c>
-      <c r="H85" s="11" t="s">
+      <c r="J85" s="11" t="s">
         <v>1218</v>
       </c>
-      <c r="I85" s="11" t="s">
+      <c r="K85" s="11" t="s">
         <v>1219</v>
       </c>
-      <c r="J85" s="11" t="s">
+      <c r="L85" s="11" t="s">
         <v>1220</v>
       </c>
-      <c r="K85" s="11" t="s">
+      <c r="M85" s="11" t="s">
         <v>1221</v>
       </c>
-      <c r="L85" s="11" t="s">
+      <c r="N85" s="11" t="s">
         <v>1222</v>
-      </c>
-      <c r="M85" s="11" t="s">
-        <v>1223</v>
-      </c>
-      <c r="N85" s="11" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>1225</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="D86" s="11" t="s">
         <v>1226</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="E86" s="11" t="s">
         <v>1227</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="F86" s="11" t="s">
         <v>1228</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="G86" s="11" t="s">
         <v>1229</v>
       </c>
-      <c r="F86" s="11" t="s">
+      <c r="H86" s="11" t="s">
         <v>1230</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="I86" s="11" t="s">
         <v>1231</v>
       </c>
-      <c r="H86" s="11" t="s">
+      <c r="J86" s="11" t="s">
         <v>1232</v>
       </c>
-      <c r="I86" s="11" t="s">
+      <c r="K86" s="11" t="s">
         <v>1233</v>
       </c>
-      <c r="J86" s="11" t="s">
+      <c r="L86" s="11" t="s">
         <v>1234</v>
       </c>
-      <c r="K86" s="11" t="s">
+      <c r="M86" s="11" t="s">
         <v>1235</v>
       </c>
-      <c r="L86" s="11" t="s">
+      <c r="N86" s="11" t="s">
         <v>1236</v>
-      </c>
-      <c r="M86" s="11" t="s">
-        <v>1237</v>
-      </c>
-      <c r="N86" s="11" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>1239</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="D87" s="11" t="s">
         <v>1240</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="E87" s="11" t="s">
         <v>1241</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="F87" s="11" t="s">
         <v>1242</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="G87" s="11" t="s">
         <v>1243</v>
       </c>
-      <c r="F87" s="11" t="s">
+      <c r="H87" s="11" t="s">
         <v>1244</v>
       </c>
-      <c r="G87" s="11" t="s">
+      <c r="I87" s="11" t="s">
         <v>1245</v>
       </c>
-      <c r="H87" s="11" t="s">
+      <c r="J87" s="11" t="s">
         <v>1246</v>
       </c>
-      <c r="I87" s="11" t="s">
+      <c r="K87" s="11" t="s">
         <v>1247</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="L87" s="11" t="s">
         <v>1248</v>
       </c>
-      <c r="K87" s="11" t="s">
+      <c r="M87" s="11" t="s">
         <v>1249</v>
       </c>
-      <c r="L87" s="11" t="s">
+      <c r="N87" s="11" t="s">
         <v>1250</v>
-      </c>
-      <c r="M87" s="11" t="s">
-        <v>1251</v>
-      </c>
-      <c r="N87" s="11" t="s">
-        <v>1252</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>1253</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="D88" s="11" t="s">
         <v>1254</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="E88" s="11" t="s">
         <v>1255</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="F88" s="11" t="s">
         <v>1256</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="G88" s="11" t="s">
         <v>1257</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="H88" s="11" t="s">
         <v>1258</v>
       </c>
-      <c r="G88" s="11" t="s">
+      <c r="I88" s="11" t="s">
         <v>1259</v>
       </c>
-      <c r="H88" s="11" t="s">
+      <c r="J88" s="11" t="s">
         <v>1260</v>
       </c>
-      <c r="I88" s="11" t="s">
+      <c r="K88" s="11" t="s">
         <v>1261</v>
       </c>
-      <c r="J88" s="11" t="s">
+      <c r="L88" s="11" t="s">
         <v>1262</v>
       </c>
-      <c r="K88" s="11" t="s">
+      <c r="M88" s="11" t="s">
         <v>1263</v>
       </c>
-      <c r="L88" s="11" t="s">
+      <c r="N88" s="11" t="s">
         <v>1264</v>
-      </c>
-      <c r="M88" s="11" t="s">
-        <v>1265</v>
-      </c>
-      <c r="N88" s="11" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>1267</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="D89" s="11" t="s">
         <v>1268</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="E89" s="11" t="s">
         <v>1269</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="F89" s="11" t="s">
         <v>1270</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="G89" s="11" t="s">
         <v>1271</v>
       </c>
-      <c r="F89" s="11" t="s">
+      <c r="H89" s="11" t="s">
         <v>1272</v>
       </c>
-      <c r="G89" s="11" t="s">
+      <c r="I89" s="11" t="s">
         <v>1273</v>
       </c>
-      <c r="H89" s="11" t="s">
+      <c r="J89" s="11" t="s">
         <v>1274</v>
       </c>
-      <c r="I89" s="11" t="s">
+      <c r="K89" s="11" t="s">
         <v>1275</v>
       </c>
-      <c r="J89" s="11" t="s">
+      <c r="L89" s="11" t="s">
         <v>1276</v>
       </c>
-      <c r="K89" s="11" t="s">
+      <c r="M89" s="11" t="s">
         <v>1277</v>
       </c>
-      <c r="L89" s="11" t="s">
+      <c r="N89" s="11" t="s">
         <v>1278</v>
-      </c>
-      <c r="M89" s="11" t="s">
-        <v>1279</v>
-      </c>
-      <c r="N89" s="11" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>1281</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="D90" s="11" t="s">
         <v>1282</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="E90" s="11" t="s">
         <v>1283</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="F90" s="11" t="s">
         <v>1284</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="G90" s="11" t="s">
         <v>1285</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="H90" s="11" t="s">
         <v>1286</v>
       </c>
-      <c r="G90" s="11" t="s">
+      <c r="I90" s="11" t="s">
         <v>1287</v>
       </c>
-      <c r="H90" s="11" t="s">
+      <c r="J90" s="11" t="s">
         <v>1288</v>
       </c>
-      <c r="I90" s="11" t="s">
+      <c r="K90" s="11" t="s">
         <v>1289</v>
       </c>
-      <c r="J90" s="11" t="s">
+      <c r="L90" s="11" t="s">
         <v>1290</v>
       </c>
-      <c r="K90" s="11" t="s">
+      <c r="M90" s="11" t="s">
         <v>1291</v>
       </c>
-      <c r="L90" s="11" t="s">
+      <c r="N90" s="11" t="s">
         <v>1292</v>
-      </c>
-      <c r="M90" s="11" t="s">
-        <v>1293</v>
-      </c>
-      <c r="N90" s="11" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>1295</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="D91" s="11" t="s">
         <v>1296</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="E91" s="11" t="s">
         <v>1297</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="F91" s="11" t="s">
         <v>1298</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="G91" s="11" t="s">
         <v>1299</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="H91" s="11" t="s">
         <v>1300</v>
       </c>
-      <c r="G91" s="11" t="s">
+      <c r="I91" s="11" t="s">
         <v>1301</v>
       </c>
-      <c r="H91" s="11" t="s">
+      <c r="J91" s="11" t="s">
         <v>1302</v>
       </c>
-      <c r="I91" s="11" t="s">
+      <c r="K91" s="11" t="s">
         <v>1303</v>
       </c>
-      <c r="J91" s="11" t="s">
+      <c r="L91" s="11" t="s">
         <v>1304</v>
       </c>
-      <c r="K91" s="11" t="s">
+      <c r="M91" s="11" t="s">
         <v>1305</v>
       </c>
-      <c r="L91" s="11" t="s">
+      <c r="N91" s="11" t="s">
         <v>1306</v>
-      </c>
-      <c r="M91" s="11" t="s">
-        <v>1307</v>
-      </c>
-      <c r="N91" s="11" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>1309</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="D92" s="11" t="s">
         <v>1310</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="E92" s="11" t="s">
         <v>1311</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="F92" s="11" t="s">
         <v>1312</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="G92" s="11" t="s">
         <v>1313</v>
       </c>
-      <c r="F92" s="11" t="s">
+      <c r="H92" s="11" t="s">
         <v>1314</v>
       </c>
-      <c r="G92" s="11" t="s">
+      <c r="I92" s="11" t="s">
         <v>1315</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="J92" s="11" t="s">
         <v>1316</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="K92" s="11" t="s">
         <v>1317</v>
       </c>
-      <c r="J92" s="11" t="s">
+      <c r="L92" s="11" t="s">
         <v>1318</v>
       </c>
-      <c r="K92" s="11" t="s">
+      <c r="M92" s="11" t="s">
         <v>1319</v>
       </c>
-      <c r="L92" s="11" t="s">
+      <c r="N92" s="11" t="s">
         <v>1320</v>
-      </c>
-      <c r="M92" s="11" t="s">
-        <v>1321</v>
-      </c>
-      <c r="N92" s="11" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>1323</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="D93" s="11" t="s">
         <v>1324</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="E93" s="11" t="s">
         <v>1325</v>
       </c>
-      <c r="D93" s="11" t="s">
+      <c r="F93" s="11" t="s">
         <v>1326</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="G93" s="11" t="s">
         <v>1327</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="H93" s="11" t="s">
         <v>1328</v>
       </c>
-      <c r="G93" s="11" t="s">
+      <c r="I93" s="11" t="s">
         <v>1329</v>
       </c>
-      <c r="H93" s="11" t="s">
+      <c r="J93" s="11" t="s">
         <v>1330</v>
       </c>
-      <c r="I93" s="11" t="s">
+      <c r="K93" s="11" t="s">
         <v>1331</v>
       </c>
-      <c r="J93" s="11" t="s">
+      <c r="L93" s="11" t="s">
         <v>1332</v>
       </c>
-      <c r="K93" s="11" t="s">
+      <c r="M93" s="11" t="s">
         <v>1333</v>
       </c>
-      <c r="L93" s="11" t="s">
+      <c r="N93" s="11" t="s">
         <v>1334</v>
-      </c>
-      <c r="M93" s="11" t="s">
-        <v>1335</v>
-      </c>
-      <c r="N93" s="11" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>1337</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="D94" s="11" t="s">
         <v>1338</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="E94" s="11" t="s">
         <v>1339</v>
       </c>
-      <c r="D94" s="11" t="s">
+      <c r="F94" s="11" t="s">
         <v>1340</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="G94" s="11" t="s">
         <v>1341</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="H94" s="11" t="s">
         <v>1342</v>
       </c>
-      <c r="G94" s="11" t="s">
+      <c r="I94" s="11" t="s">
         <v>1343</v>
       </c>
-      <c r="H94" s="11" t="s">
+      <c r="J94" s="11" t="s">
         <v>1344</v>
       </c>
-      <c r="I94" s="11" t="s">
+      <c r="K94" s="11" t="s">
         <v>1345</v>
       </c>
-      <c r="J94" s="11" t="s">
+      <c r="L94" s="11" t="s">
         <v>1346</v>
       </c>
-      <c r="K94" s="11" t="s">
+      <c r="M94" s="11" t="s">
         <v>1347</v>
       </c>
-      <c r="L94" s="11" t="s">
+      <c r="N94" s="11" t="s">
         <v>1348</v>
-      </c>
-      <c r="M94" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="N94" s="11" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>1351</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="D95" s="11" t="s">
         <v>1352</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="E95" s="11" t="s">
         <v>1353</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="F95" s="11" t="s">
         <v>1354</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="G95" s="11" t="s">
         <v>1355</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="H95" s="11" t="s">
         <v>1356</v>
       </c>
-      <c r="G95" s="11" t="s">
+      <c r="I95" s="11" t="s">
         <v>1357</v>
       </c>
-      <c r="H95" s="11" t="s">
+      <c r="J95" s="11" t="s">
         <v>1358</v>
       </c>
-      <c r="I95" s="11" t="s">
+      <c r="K95" s="11" t="s">
         <v>1359</v>
       </c>
-      <c r="J95" s="11" t="s">
+      <c r="L95" s="11" t="s">
         <v>1360</v>
       </c>
-      <c r="K95" s="11" t="s">
+      <c r="M95" s="11" t="s">
         <v>1361</v>
       </c>
-      <c r="L95" s="11" t="s">
+      <c r="N95" s="11" t="s">
         <v>1362</v>
-      </c>
-      <c r="M95" s="11" t="s">
-        <v>1363</v>
-      </c>
-      <c r="N95" s="11" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>1365</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="D96" s="11" t="s">
         <v>1366</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="E96" s="11" t="s">
         <v>1367</v>
       </c>
-      <c r="D96" s="11" t="s">
+      <c r="F96" s="11" t="s">
         <v>1368</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="G96" s="11" t="s">
         <v>1369</v>
       </c>
-      <c r="F96" s="11" t="s">
+      <c r="H96" s="11" t="s">
         <v>1370</v>
       </c>
-      <c r="G96" s="11" t="s">
+      <c r="I96" s="11" t="s">
         <v>1371</v>
       </c>
-      <c r="H96" s="11" t="s">
+      <c r="J96" s="11" t="s">
         <v>1372</v>
       </c>
-      <c r="I96" s="11" t="s">
+      <c r="K96" s="11" t="s">
         <v>1373</v>
       </c>
-      <c r="J96" s="11" t="s">
+      <c r="L96" s="11" t="s">
         <v>1374</v>
       </c>
-      <c r="K96" s="11" t="s">
+      <c r="M96" s="11" t="s">
         <v>1375</v>
       </c>
-      <c r="L96" s="11" t="s">
+      <c r="N96" s="11" t="s">
         <v>1376</v>
-      </c>
-      <c r="M96" s="11" t="s">
-        <v>1377</v>
-      </c>
-      <c r="N96" s="11" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>1379</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="D97" s="11" t="s">
         <v>1380</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="E97" s="11" t="s">
         <v>1381</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="F97" s="11" t="s">
         <v>1382</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="G97" s="11" t="s">
         <v>1383</v>
       </c>
-      <c r="F97" s="11" t="s">
+      <c r="H97" s="11" t="s">
         <v>1384</v>
       </c>
-      <c r="G97" s="11" t="s">
+      <c r="I97" s="11" t="s">
         <v>1385</v>
       </c>
-      <c r="H97" s="11" t="s">
+      <c r="J97" s="11" t="s">
         <v>1386</v>
       </c>
-      <c r="I97" s="11" t="s">
+      <c r="K97" s="11" t="s">
         <v>1387</v>
       </c>
-      <c r="J97" s="11" t="s">
+      <c r="L97" s="11" t="s">
         <v>1388</v>
       </c>
-      <c r="K97" s="11" t="s">
+      <c r="M97" s="11" t="s">
         <v>1389</v>
       </c>
-      <c r="L97" s="11" t="s">
+      <c r="N97" s="11" t="s">
         <v>1390</v>
-      </c>
-      <c r="M97" s="11" t="s">
-        <v>1391</v>
-      </c>
-      <c r="N97" s="11" t="s">
-        <v>1392</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>1393</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="D98" s="11" t="s">
         <v>1394</v>
       </c>
-      <c r="C98" s="11" t="s">
+      <c r="E98" s="11" t="s">
         <v>1395</v>
       </c>
-      <c r="D98" s="11" t="s">
+      <c r="F98" s="11" t="s">
         <v>1396</v>
       </c>
-      <c r="E98" s="11" t="s">
+      <c r="G98" s="11" t="s">
         <v>1397</v>
       </c>
-      <c r="F98" s="11" t="s">
+      <c r="H98" s="11" t="s">
         <v>1398</v>
       </c>
-      <c r="G98" s="11" t="s">
+      <c r="I98" s="11" t="s">
         <v>1399</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="J98" s="11" t="s">
         <v>1400</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="K98" s="11" t="s">
         <v>1401</v>
       </c>
-      <c r="J98" s="11" t="s">
+      <c r="L98" s="11" t="s">
         <v>1402</v>
       </c>
-      <c r="K98" s="11" t="s">
+      <c r="M98" s="11" t="s">
         <v>1403</v>
       </c>
-      <c r="L98" s="11" t="s">
+      <c r="N98" s="11" t="s">
         <v>1404</v>
-      </c>
-      <c r="M98" s="11" t="s">
-        <v>1405</v>
-      </c>
-      <c r="N98" s="11" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>1407</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="D99" s="11" t="s">
         <v>1408</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="E99" s="11" t="s">
         <v>1409</v>
       </c>
-      <c r="D99" s="11" t="s">
+      <c r="F99" s="11" t="s">
         <v>1410</v>
       </c>
-      <c r="E99" s="11" t="s">
+      <c r="G99" s="11" t="s">
         <v>1411</v>
       </c>
-      <c r="F99" s="11" t="s">
+      <c r="H99" s="11" t="s">
         <v>1412</v>
       </c>
-      <c r="G99" s="11" t="s">
+      <c r="I99" s="11" t="s">
         <v>1413</v>
       </c>
-      <c r="H99" s="11" t="s">
+      <c r="J99" s="11" t="s">
         <v>1414</v>
       </c>
-      <c r="I99" s="11" t="s">
+      <c r="K99" s="11" t="s">
         <v>1415</v>
       </c>
-      <c r="J99" s="11" t="s">
+      <c r="L99" s="11" t="s">
         <v>1416</v>
       </c>
-      <c r="K99" s="11" t="s">
+      <c r="M99" s="11" t="s">
         <v>1417</v>
       </c>
-      <c r="L99" s="11" t="s">
+      <c r="N99" s="11" t="s">
         <v>1418</v>
-      </c>
-      <c r="M99" s="11" t="s">
-        <v>1419</v>
-      </c>
-      <c r="N99" s="11" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>1421</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="D100" s="11" t="s">
         <v>1422</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="E100" s="11" t="s">
         <v>1423</v>
       </c>
-      <c r="D100" s="11" t="s">
+      <c r="F100" s="11" t="s">
         <v>1424</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="G100" s="11" t="s">
         <v>1425</v>
       </c>
-      <c r="F100" s="11" t="s">
+      <c r="H100" s="11" t="s">
         <v>1426</v>
       </c>
-      <c r="G100" s="11" t="s">
+      <c r="I100" s="11" t="s">
         <v>1427</v>
       </c>
-      <c r="H100" s="11" t="s">
+      <c r="J100" s="11" t="s">
         <v>1428</v>
       </c>
-      <c r="I100" s="11" t="s">
+      <c r="K100" s="11" t="s">
         <v>1429</v>
       </c>
-      <c r="J100" s="11" t="s">
+      <c r="L100" s="11" t="s">
         <v>1430</v>
       </c>
-      <c r="K100" s="11" t="s">
+      <c r="M100" s="11" t="s">
         <v>1431</v>
       </c>
-      <c r="L100" s="11" t="s">
+      <c r="N100" s="11" t="s">
         <v>1432</v>
-      </c>
-      <c r="M100" s="11" t="s">
-        <v>1433</v>
-      </c>
-      <c r="N100" s="11" t="s">
-        <v>1434</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>1435</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="D101" s="11" t="s">
         <v>1436</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="E101" s="11" t="s">
         <v>1437</v>
       </c>
-      <c r="D101" s="11" t="s">
+      <c r="F101" s="11" t="s">
         <v>1438</v>
       </c>
-      <c r="E101" s="11" t="s">
+      <c r="G101" s="11" t="s">
         <v>1439</v>
       </c>
-      <c r="F101" s="11" t="s">
+      <c r="H101" s="11" t="s">
         <v>1440</v>
       </c>
-      <c r="G101" s="11" t="s">
+      <c r="I101" s="11" t="s">
         <v>1441</v>
       </c>
-      <c r="H101" s="11" t="s">
+      <c r="J101" s="11" t="s">
         <v>1442</v>
       </c>
-      <c r="I101" s="11" t="s">
+      <c r="K101" s="11" t="s">
         <v>1443</v>
       </c>
-      <c r="J101" s="11" t="s">
+      <c r="L101" s="11" t="s">
         <v>1444</v>
       </c>
-      <c r="K101" s="11" t="s">
+      <c r="M101" s="11" t="s">
         <v>1445</v>
       </c>
-      <c r="L101" s="11" t="s">
+      <c r="N101" s="11" t="s">
         <v>1446</v>
-      </c>
-      <c r="M101" s="11" t="s">
-        <v>1447</v>
-      </c>
-      <c r="N101" s="11" t="s">
-        <v>1448</v>
       </c>
     </row>
   </sheetData>
